--- a/Saudi/Occupancy Update.xlsx
+++ b/Saudi/Occupancy Update.xlsx
@@ -547,17 +547,17 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -886,50 +886,48 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>190</v>
+      <c r="A2" s="5">
+        <v>98</v>
       </c>
-      <c r="B2" s="6">
-        <v>270</v>
+      <c r="B2" s="5">
+        <v>254</v>
       </c>
-      <c r="C2" s="6">
-        <v>5</v>
+      <c r="C2" s="5">
+        <v>17</v>
       </c>
-      <c r="D2" s="4">
-        <v>477</v>
+      <c r="D2" s="6">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
